--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2563.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2563.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.053946883093163</v>
+        <v>1.48283851146698</v>
       </c>
       <c r="B1">
-        <v>1.656143207244986</v>
+        <v>1.265719175338745</v>
       </c>
       <c r="C1">
-        <v>3.621953468269025</v>
+        <v>5.14802360534668</v>
       </c>
       <c r="D1">
-        <v>2.13581642948153</v>
+        <v>3.51827073097229</v>
       </c>
       <c r="E1">
-        <v>0.7431614383887252</v>
+        <v>0.6542774438858032</v>
       </c>
     </row>
   </sheetData>
